--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7760</t>
+    <t xml:space="preserve">E7420</t>
   </si>
 </sst>
 </file>
@@ -63,7 +63,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -103,6 +103,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="0"/>
       <charset val="1"/>
     </font>
@@ -149,7 +155,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -164,6 +170,10 @@
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -189,8 +199,8 @@
   </sheetPr>
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H3" activeCellId="0" sqref="H2:H41"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -264,10 +274,11 @@
       <c r="F2" s="3" t="n">
         <v>41</v>
       </c>
-      <c r="G2" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="4" t="b">
+      <c r="G2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H2" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
@@ -311,10 +322,11 @@
       <c r="F3" s="3" t="n">
         <v>42</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H3" s="4" t="b">
+      <c r="G3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H3" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -337,10 +349,11 @@
       <c r="F4" s="3" t="n">
         <v>43</v>
       </c>
-      <c r="G4" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H4" s="4" t="b">
+      <c r="G4" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -363,10 +376,11 @@
       <c r="F5" s="3" t="n">
         <v>44</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H5" s="4" t="b">
+      <c r="G5" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -389,10 +403,11 @@
       <c r="F6" s="3" t="n">
         <v>45</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H6" s="4" t="b">
+      <c r="G6" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -415,10 +430,11 @@
       <c r="F7" s="3" t="n">
         <v>46</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H7" s="4" t="b">
+      <c r="G7" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -441,10 +457,11 @@
       <c r="F8" s="3" t="n">
         <v>47</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H8" s="4" t="b">
+      <c r="G8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -467,10 +484,11 @@
       <c r="F9" s="3" t="n">
         <v>48</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H9" s="4" t="b">
+      <c r="G9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -493,10 +511,11 @@
       <c r="F10" s="3" t="n">
         <v>49</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H10" s="4" t="b">
+      <c r="G10" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H10" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -519,10 +538,11 @@
       <c r="F11" s="3" t="n">
         <v>50</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H11" s="4" t="b">
+      <c r="G11" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H11" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -545,10 +565,11 @@
       <c r="F12" s="3" t="n">
         <v>51</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H12" s="4" t="b">
+      <c r="G12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -571,10 +592,11 @@
       <c r="F13" s="3" t="n">
         <v>52</v>
       </c>
-      <c r="G13" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H13" s="4" t="b">
+      <c r="G13" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -597,10 +619,11 @@
       <c r="F14" s="3" t="n">
         <v>53</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H14" s="4" t="b">
+      <c r="G14" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -623,10 +646,11 @@
       <c r="F15" s="3" t="n">
         <v>54</v>
       </c>
-      <c r="G15" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H15" s="4" t="b">
+      <c r="G15" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -649,10 +673,11 @@
       <c r="F16" s="3" t="n">
         <v>55</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H16" s="4" t="b">
+      <c r="G16" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H16" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -675,10 +700,11 @@
       <c r="F17" s="3" t="n">
         <v>56</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H17" s="4" t="b">
+      <c r="G17" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -701,10 +727,11 @@
       <c r="F18" s="3" t="n">
         <v>57</v>
       </c>
-      <c r="G18" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H18" s="4" t="b">
+      <c r="G18" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H18" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -727,10 +754,11 @@
       <c r="F19" s="3" t="n">
         <v>58</v>
       </c>
-      <c r="G19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H19" s="4" t="b">
+      <c r="G19" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H19" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -753,10 +781,11 @@
       <c r="F20" s="3" t="n">
         <v>59</v>
       </c>
-      <c r="G20" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H20" s="4" t="b">
+      <c r="G20" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H20" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -779,10 +808,11 @@
       <c r="F21" s="3" t="n">
         <v>60</v>
       </c>
-      <c r="G21" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H21" s="4" t="b">
+      <c r="G21" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H21" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -805,10 +835,11 @@
       <c r="F22" s="3" t="n">
         <v>61</v>
       </c>
-      <c r="G22" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H22" s="4" t="b">
+      <c r="G22" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H22" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -831,10 +862,11 @@
       <c r="F23" s="3" t="n">
         <v>62</v>
       </c>
-      <c r="G23" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H23" s="4" t="b">
+      <c r="G23" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H23" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -857,10 +889,11 @@
       <c r="F24" s="3" t="n">
         <v>63</v>
       </c>
-      <c r="G24" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H24" s="4" t="b">
+      <c r="G24" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H24" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -883,10 +916,11 @@
       <c r="F25" s="3" t="n">
         <v>64</v>
       </c>
-      <c r="G25" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="4" t="b">
+      <c r="G25" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -909,10 +943,11 @@
       <c r="F26" s="3" t="n">
         <v>65</v>
       </c>
-      <c r="G26" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H26" s="4" t="b">
+      <c r="G26" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H26" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -935,10 +970,11 @@
       <c r="F27" s="3" t="n">
         <v>66</v>
       </c>
-      <c r="G27" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H27" s="4" t="b">
+      <c r="G27" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H27" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -961,10 +997,11 @@
       <c r="F28" s="3" t="n">
         <v>67</v>
       </c>
-      <c r="G28" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H28" s="4" t="b">
+      <c r="G28" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H28" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -987,10 +1024,11 @@
       <c r="F29" s="3" t="n">
         <v>68</v>
       </c>
-      <c r="G29" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H29" s="4" t="b">
+      <c r="G29" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H29" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1013,10 +1051,11 @@
       <c r="F30" s="3" t="n">
         <v>69</v>
       </c>
-      <c r="G30" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H30" s="4" t="b">
+      <c r="G30" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H30" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1039,10 +1078,11 @@
       <c r="F31" s="3" t="n">
         <v>70</v>
       </c>
-      <c r="G31" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H31" s="4" t="b">
+      <c r="G31" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H31" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1065,10 +1105,11 @@
       <c r="F32" s="3" t="n">
         <v>71</v>
       </c>
-      <c r="G32" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H32" s="4" t="b">
+      <c r="G32" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H32" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1091,10 +1132,11 @@
       <c r="F33" s="3" t="n">
         <v>72</v>
       </c>
-      <c r="G33" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H33" s="4" t="b">
+      <c r="G33" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H33" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1117,10 +1159,11 @@
       <c r="F34" s="3" t="n">
         <v>73</v>
       </c>
-      <c r="G34" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H34" s="4" t="b">
+      <c r="G34" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H34" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1143,10 +1186,11 @@
       <c r="F35" s="3" t="n">
         <v>74</v>
       </c>
-      <c r="G35" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H35" s="4" t="b">
+      <c r="G35" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1169,10 +1213,11 @@
       <c r="F36" s="3" t="n">
         <v>75</v>
       </c>
-      <c r="G36" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H36" s="4" t="b">
+      <c r="G36" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H36" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1195,10 +1240,11 @@
       <c r="F37" s="3" t="n">
         <v>76</v>
       </c>
-      <c r="G37" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H37" s="4" t="b">
+      <c r="G37" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H37" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1221,10 +1267,11 @@
       <c r="F38" s="3" t="n">
         <v>77</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H38" s="4" t="b">
+      <c r="G38" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H38" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1247,10 +1294,11 @@
       <c r="F39" s="3" t="n">
         <v>78</v>
       </c>
-      <c r="G39" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H39" s="4" t="b">
+      <c r="G39" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H39" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1273,10 +1321,11 @@
       <c r="F40" s="3" t="n">
         <v>79</v>
       </c>
-      <c r="G40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H40" s="4" t="b">
+      <c r="G40" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H40" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1299,10 +1348,11 @@
       <c r="F41" s="3" t="n">
         <v>80</v>
       </c>
-      <c r="G41" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="H41" s="4" t="b">
+      <c r="G41" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="H41" s="5" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/s2cDNASample/s2CDNASample_J.PLAGGENBERG_11.13.19.xlsx
+++ b/s2cDNASample/s2CDNASample_J.PLAGGENBERG_11.13.19.xlsx
@@ -52,7 +52,7 @@
     <t xml:space="preserve">J.PLAGGENBERG</t>
   </si>
   <si>
-    <t xml:space="preserve">E7420</t>
+    <t xml:space="preserve">E7420L</t>
   </si>
 </sst>
 </file>
@@ -200,7 +200,7 @@
   <dimension ref="A1:AC1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G41"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -277,8 +277,7 @@
       <c r="G2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H2" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H2" s="5" t="b">
         <v>0</v>
       </c>
       <c r="I2" s="2"/>
@@ -325,8 +324,7 @@
       <c r="G3" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H3" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -352,8 +350,7 @@
       <c r="G4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H4" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -379,8 +376,7 @@
       <c r="G5" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H5" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -406,8 +402,7 @@
       <c r="G6" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H6" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H6" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -433,8 +428,7 @@
       <c r="G7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H7" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H7" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -460,8 +454,7 @@
       <c r="G8" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H8" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H8" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -487,8 +480,7 @@
       <c r="G9" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H9" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H9" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -514,8 +506,7 @@
       <c r="G10" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H10" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H10" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -541,8 +532,7 @@
       <c r="G11" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H11" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H11" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -568,8 +558,7 @@
       <c r="G12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H12" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H12" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -595,8 +584,7 @@
       <c r="G13" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H13" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H13" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -622,8 +610,7 @@
       <c r="G14" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H14" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H14" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -649,8 +636,7 @@
       <c r="G15" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H15" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H15" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -676,8 +662,7 @@
       <c r="G16" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H16" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H16" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -703,8 +688,7 @@
       <c r="G17" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H17" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -730,8 +714,7 @@
       <c r="G18" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H18" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H18" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -757,8 +740,7 @@
       <c r="G19" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H19" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H19" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -784,8 +766,7 @@
       <c r="G20" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H20" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H20" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -811,8 +792,7 @@
       <c r="G21" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H21" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -838,8 +818,7 @@
       <c r="G22" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H22" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H22" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -865,8 +844,7 @@
       <c r="G23" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H23" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H23" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -892,8 +870,7 @@
       <c r="G24" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H24" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H24" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -919,8 +896,7 @@
       <c r="G25" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H25" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H25" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -946,8 +922,7 @@
       <c r="G26" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H26" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H26" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -973,8 +948,7 @@
       <c r="G27" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H27" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H27" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1000,8 +974,7 @@
       <c r="G28" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H28" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H28" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1027,8 +1000,7 @@
       <c r="G29" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H29" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H29" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1054,8 +1026,7 @@
       <c r="G30" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H30" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H30" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1081,8 +1052,7 @@
       <c r="G31" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H31" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H31" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1108,8 +1078,7 @@
       <c r="G32" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H32" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H32" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1135,8 +1104,7 @@
       <c r="G33" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H33" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1162,8 +1130,7 @@
       <c r="G34" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H34" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1189,8 +1156,7 @@
       <c r="G35" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H35" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1216,8 +1182,7 @@
       <c r="G36" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H36" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H36" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1243,8 +1208,7 @@
       <c r="G37" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H37" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H37" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1270,8 +1234,7 @@
       <c r="G38" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H38" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1297,8 +1260,7 @@
       <c r="G39" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H39" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H39" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1324,8 +1286,7 @@
       <c r="G40" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H40" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H40" s="5" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1351,8 +1312,7 @@
       <c r="G41" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="H41" s="5" t="n">
-        <f aca="false">FALSE()</f>
+      <c r="H41" s="5" t="b">
         <v>0</v>
       </c>
     </row>
